--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1277084-4F6F-474B-943B-2E56CE19AC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512CEDB-17B4-4AD5-BED4-A1907900AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -993,22 +993,22 @@
     <t>sub_nut-dmz-08</t>
   </si>
   <si>
-    <t>VM DE TEST</t>
-  </si>
-  <si>
     <t>200.1.1.240</t>
   </si>
   <si>
-    <t>LU718 - LNX - VM DE TEST</t>
-  </si>
-  <si>
     <t>lu718</t>
   </si>
   <si>
-    <t>LU718</t>
-  </si>
-  <si>
     <t>200.1.1.1055</t>
+  </si>
+  <si>
+    <t>LU719</t>
+  </si>
+  <si>
+    <t>LU719 - LNX - FUCKING VM</t>
+  </si>
+  <si>
+    <t>VM DE TEST JESUS IS MY LORD</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1535,13 +1535,13 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R2" s="2">
         <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>20</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512CEDB-17B4-4AD5-BED4-A1907900AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866FEB29-9EA7-47A4-827F-F45F50E748BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="309">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1005,10 +1005,7 @@
     <t>LU719</t>
   </si>
   <si>
-    <t>LU719 - LNX - FUCKING VM</t>
-  </si>
-  <si>
-    <t>VM DE TEST JESUS IS MY LORD</t>
+    <t>VM DE TEST JESUS IS OUR SAVIOR</t>
   </si>
 </sst>
 </file>
@@ -1397,14 +1394,14 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1491,10 +1488,10 @@
         <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866FEB29-9EA7-47A4-827F-F45F50E748BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842FF8F-C521-4E1D-9E89-4319D0E14B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -993,6 +993,9 @@
     <t>sub_nut-dmz-08</t>
   </si>
   <si>
+    <t>VM DE TEST</t>
+  </si>
+  <si>
     <t>200.1.1.240</t>
   </si>
   <si>
@@ -1003,9 +1006,6 @@
   </si>
   <si>
     <t>LU719</t>
-  </si>
-  <si>
-    <t>VM DE TEST JESUS IS OUR SAVIOR</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,16 +1485,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1532,13 +1532,13 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R2" s="2">
         <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>20</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9842FF8F-C521-4E1D-9E89-4319D0E14B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C62DD-B3B3-4CB7-84AF-9C638F2B601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -993,9 +993,6 @@
     <t>sub_nut-dmz-08</t>
   </si>
   <si>
-    <t>VM DE TEST</t>
-  </si>
-  <si>
     <t>200.1.1.240</t>
   </si>
   <si>
@@ -1006,6 +1003,9 @@
   </si>
   <si>
     <t>LU719</t>
+  </si>
+  <si>
+    <t>VM DE TEST - LNX</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,16 +1485,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1532,13 +1532,13 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R2" s="2">
         <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>20</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C62DD-B3B3-4CB7-84AF-9C638F2B601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB82F4-11A9-4454-A564-94348D0D1E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1005,7 +1005,7 @@
     <t>LU719</t>
   </si>
   <si>
-    <t>VM DE TEST - LNX</t>
+    <t>VM DE TEST - LNX - test</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB82F4-11A9-4454-A564-94348D0D1E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B30F20-F3A0-4389-B60E-CEDD010C3BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>VM DE TEST - LNX - test</t>
+  </si>
+  <si>
+    <t>LU71999</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>307</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B30F20-F3A0-4389-B60E-CEDD010C3BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF63801-9AB4-4620-B17D-6A2518D10291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
     <t>VM DE TEST - LNX - test</t>
   </si>
   <si>
-    <t>LU71999</t>
+    <t>LU799</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF63801-9AB4-4620-B17D-6A2518D10291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DF2A5-110C-4B96-9FE7-6FCC4FC3635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
     <t>VM DE TEST - LNX - test</t>
   </si>
   <si>
-    <t>LU799</t>
+    <t>LU79999</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DF2A5-110C-4B96-9FE7-6FCC4FC3635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488497DD-8F7F-43AA-966E-40931C4E3CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
     <t>VM DE TEST - LNX - test</t>
   </si>
   <si>
-    <t>LU79999</t>
+    <t>LU790</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488497DD-8F7F-43AA-966E-40931C4E3CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23A1D2-F894-4D1D-9114-CA48322828CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1002,10 +1002,10 @@
     <t>200.1.1.1055</t>
   </si>
   <si>
-    <t>LU719</t>
-  </si>
-  <si>
     <t>VM DE TEST - LNX - test</t>
+  </si>
+  <si>
+    <t>LU799</t>
   </si>
   <si>
     <t>LU790</t>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,10 +1491,10 @@
         <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA23A1D2-F894-4D1D-9114-CA48322828CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049669C-164C-4A56-9279-9B88B13132D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="309">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1003,9 +1003,6 @@
   </si>
   <si>
     <t>VM DE TEST - LNX - test</t>
-  </si>
-  <si>
-    <t>LU799</t>
   </si>
   <si>
     <t>LU790</t>
@@ -1488,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>308</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049669C-164C-4A56-9279-9B88B13132D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02725042-83A7-47D0-B2BA-395EAC9D8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>LU790</t>
+  </si>
+  <si>
+    <t>LU795</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>308</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02725042-83A7-47D0-B2BA-395EAC9D8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC6491-B78E-4BA3-80A1-E22ACF1D33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
     <t>LU790</t>
   </si>
   <si>
-    <t>LU795</t>
+    <t>LU7999</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC6491-B78E-4BA3-80A1-E22ACF1D33A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B349338-0889-4181-A4E9-003FBA5F6967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
     <t>LU790</t>
   </si>
   <si>
-    <t>LU7999</t>
+    <t>LU7dljdlvf</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B349338-0889-4181-A4E9-003FBA5F6967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6DAFF-173F-4588-B512-10DA7B761232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1002,13 +1002,13 @@
     <t>200.1.1.1055</t>
   </si>
   <si>
-    <t>VM DE TEST - LNX - test</t>
-  </si>
-  <si>
     <t>LU790</t>
   </si>
   <si>
     <t>LU7dljdlvf</t>
+  </si>
+  <si>
+    <t>VM DE TEST - LNX - test kwkwk</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6DAFF-173F-4588-B512-10DA7B761232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89378212-E7E9-4D9B-A0E6-E10EA87705BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1005,10 +1005,10 @@
     <t>LU790</t>
   </si>
   <si>
-    <t>LU7dljdlvf</t>
-  </si>
-  <si>
     <t>VM DE TEST - LNX - test kwkwk</t>
+  </si>
+  <si>
+    <t>LU718</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89378212-E7E9-4D9B-A0E6-E10EA87705BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05D20C-B09D-49EF-9CAD-DB660522B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="310">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1002,13 +1002,13 @@
     <t>200.1.1.1055</t>
   </si>
   <si>
-    <t>LU790</t>
-  </si>
-  <si>
     <t>VM DE TEST - LNX - test kwkwk</t>
   </si>
   <si>
     <t>LU718</t>
+  </si>
+  <si>
+    <t>LU791</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>
@@ -1547,56 +1547,197 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I54" si="0">"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="3"/>
+        <f>"sub_"&amp;G3</f>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K3" s="3" t="str">
-        <f t="shared" ref="K3:K54" si="1">"stg_"&amp;G3</f>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <f>"stg_"&amp;G3</f>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2048</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="3"/>
+        <f>"sub_"&amp;G4</f>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <f>"stg_"&amp;G4</f>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2048</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R4" s="2">
+        <v>24</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J5" s="3"/>
+        <f>"sub_"&amp;G5</f>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="T5" s="2"/>
+        <f>"stg_"&amp;G5</f>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R5" s="2">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1604,12 +1745,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I54" si="0">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K3:K54" si="1">"stg_"&amp;G6</f>
         <v>stg_</v>
       </c>
       <c r="L6" s="2"/>
@@ -2446,7 +2587,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54 L2:L54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L54 G2:H54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J54" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05D20C-B09D-49EF-9CAD-DB660522B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E285EA-72D1-44C1-B0BC-F769F278C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,196 +1548,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>"sub_"&amp;G3</f>
-        <v>sub_cluster650</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f>"stg_"&amp;G3</f>
-        <v>stg_cluster650</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2048</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="R3" s="2">
-        <v>24</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>"sub_"&amp;G4</f>
-        <v>sub_cluster650</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>"stg_"&amp;G4</f>
-        <v>stg_cluster650</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2048</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="R4" s="2">
-        <v>24</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>"sub_"&amp;G5</f>
-        <v>sub_cluster650</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f>"stg_"&amp;G5</f>
-        <v>stg_cluster650</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2048</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="R5" s="2">
-        <v>24</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E285EA-72D1-44C1-B0BC-F769F278C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913729F-2DEC-467C-B84F-043A8A130796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1002,13 +1002,13 @@
     <t>200.1.1.1055</t>
   </si>
   <si>
-    <t>VM DE TEST - LNX - test kwkwk</t>
-  </si>
-  <si>
     <t>LU718</t>
   </si>
   <si>
     <t>LU791</t>
+  </si>
+  <si>
+    <t>VM DE TEST - LNX - test kwak</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913729F-2DEC-467C-B84F-043A8A130796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00408364-A7D8-4BC5-9FDF-6EF1FFA747A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -51,14 +51,14 @@
     <definedName name="sub_cluster481">params!$E$25:$E$41</definedName>
     <definedName name="sub_cluster650">params!$B$25:$B$41</definedName>
     <definedName name="sub_cluster651">params!$D$25:$D$41</definedName>
-    <definedName name="sub_nut_dmz_01">params!$B$69:$B$168</definedName>
-    <definedName name="sub_nut_dmz_02">params!$C$69:$C$168</definedName>
-    <definedName name="sub_nut_dmz_03">params!$D$69:$D$168</definedName>
-    <definedName name="sub_nut_dmz_04">params!$E$69:$E$168</definedName>
-    <definedName name="sub_nut_dmz_05">params!$F$69:$F$168</definedName>
-    <definedName name="sub_nut_dmz_06">params!$G$69:$G$168</definedName>
-    <definedName name="sub_nut_dmz_07">params!$H$69:$H$168</definedName>
-    <definedName name="sub_nut_dmz_08">params!$I$69:$I$168</definedName>
+    <definedName name="sub_nut_dmz_01">params!$B$69:$B$171</definedName>
+    <definedName name="sub_nut_dmz_02">params!$C$69:$C$171</definedName>
+    <definedName name="sub_nut_dmz_03">params!$D$69:$D$171</definedName>
+    <definedName name="sub_nut_dmz_04">params!$E$69:$E$171</definedName>
+    <definedName name="sub_nut_dmz_05">params!$F$69:$F$171</definedName>
+    <definedName name="sub_nut_dmz_06">params!$G$69:$G$171</definedName>
+    <definedName name="sub_nut_dmz_07">params!$H$69:$H$171</definedName>
+    <definedName name="sub_nut_dmz_08">params!$I$69:$I$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="325">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -108,9 +108,6 @@
     <t>STORAGE</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>DEV_TEST</t>
   </si>
   <si>
-    <t>var.ahv_480_network['Production']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['NUT_AHV_LU480_DC01_01']</t>
-  </si>
-  <si>
     <t>nutanix.dc3</t>
   </si>
   <si>
@@ -210,207 +201,6 @@
     <t>SUBNETS</t>
   </si>
   <si>
-    <t>var.ahv_650_network['native']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['ESX_Management']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['Production']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['HMC_37']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['New_PROD']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VDI']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN-128-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN-20-Legacy-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN_26']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN_27']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN_40']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VLAN_42']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['historique_2_200.2']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['historique_3_200.3']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['historique_4_200.4']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['historique_9_200.9']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network['VOIP']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['ESX_Management']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['historique_2_200.2']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['historique_3_200.3']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['historique_4_200.4']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['historique_9_200.9']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['HMC_37']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['native']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['New_PROD']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VDI']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN-128-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN-20-Legacy-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN_26']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN_27']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN_40']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VLAN_42']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network['VOIP']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['ESX_Management']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['historique_2_200.2']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['historique_3_200.3']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['historique_4_200.4']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['historique_9_200.9']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['HMC_37']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['native']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['New_PROD']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['Production']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VDI']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN-128-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN-20-Legacy-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN_26']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN_27']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN_40']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VLAN_42']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network['VOIP']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['native']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['ESX_Management']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['Production']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['HMC_37']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['New_PROD']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VDI']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN-128-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN-20-Legacy-Server']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN_26']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN_27']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN_40']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VLAN_42']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['historique_2_200.2']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['historique_3_200.3']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['historique_4_200.4']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['historique_9_200.9']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network['VOIP']</t>
-  </si>
-  <si>
     <t>sub_cl</t>
   </si>
   <si>
@@ -438,129 +228,6 @@
     <t>stg_cluster481</t>
   </si>
   <si>
-    <t>var.ahv_650_storage['SelfServiceContainer']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['TEST_ESXI']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_LU481_DC03_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['Nutanix_fs01_ctr']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC1_CTX']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_VMISO']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC1_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC1_RH_PGSQL']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC1_VIE']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC3_VIE']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC3_CTX']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_LU480_DC01_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC3_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NUT_AHV_DC3_RH_PGSQL']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['NutanixManagementShare']</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage['test']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['NUT_AHV_LU481_DC03_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['NUT_VMISO']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['NUT_AHV_DC1_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['SelfServiceContainer']</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage['NutanixManagementShare']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NutanixManagementShare']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['SelfServiceContainer']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['Nutanix_fs01_ctr']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC3_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_VMISO']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC3_RH_PGSQL']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC3_VIE']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC1_VIE']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC1_CTX']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC3_CTX']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_LU481_DC03_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC1_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['NUT_AHV_DC1_RH_PGSQL']</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage['test']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['NUT_AHV_LU480_DC01_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['NUT_AHV_LU481_DC03_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['NUT_VMISO']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['NUT_AHV_DC1_01']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['SelfServiceContainer']</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage['NutanixManagementShare']</t>
-  </si>
-  <si>
     <t>stg_cl</t>
   </si>
   <si>
@@ -1005,10 +672,388 @@
     <t>LU718</t>
   </si>
   <si>
-    <t>LU791</t>
-  </si>
-  <si>
-    <t>VM DE TEST - LNX - test kwak</t>
+    <t>172.26.16.254</t>
+  </si>
+  <si>
+    <t>172.25.16.254</t>
+  </si>
+  <si>
+    <t>172.23.16.254</t>
+  </si>
+  <si>
+    <t>172.23.16.1</t>
+  </si>
+  <si>
+    <t>172.25.16.1</t>
+  </si>
+  <si>
+    <t>172.26.16.1</t>
+  </si>
+  <si>
+    <t>APP Server SAP - TST</t>
+  </si>
+  <si>
+    <t>APP Server SAP - QAL</t>
+  </si>
+  <si>
+    <t>APP Server SAP - PRO</t>
+  </si>
+  <si>
+    <t>VSL-TST-SAP-001</t>
+  </si>
+  <si>
+    <t>VSL-REC-SAP-001</t>
+  </si>
+  <si>
+    <t>rhel8-dc2</t>
+  </si>
+  <si>
+    <t>TST_SAP</t>
+  </si>
+  <si>
+    <t>REC_SAP</t>
+  </si>
+  <si>
+    <t>PRO_SAP</t>
+  </si>
+  <si>
+    <t>VSL-PRO-SAP-001</t>
+  </si>
+  <si>
+    <t>MEM(GB)</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["TEST_ESXI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["Nutanix_fs01_ctr"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["test"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["Nutanix_fs01_ctr"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>VM DE TEST - LNX - mk417</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1442,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,19 +1450,19 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1441,46 +1486,46 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,39 +1533,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"sub_"&amp;G2</f>
         <v>sub_cluster650</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="K2" s="3" t="str">
         <f>"stg_"&amp;G2</f>
         <v>stg_cluster650</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2">
         <v>2048</v>
@@ -1535,35 +1580,209 @@
         <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="R2" s="2">
         <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I5" si="0">"sub_"&amp;G3</f>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K5" si="1">"stg_"&amp;G3</f>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>16384</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2">
+        <v>16384</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R4" s="2">
+        <v>24</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>sub_nut-dmz-01</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nut-dmz-01</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="2">
+        <v>16384</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="2">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1571,15 +1790,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I3:I54" si="0">"sub_"&amp;G6</f>
+        <f t="shared" ref="I6:I54" si="2">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="str">
-        <f t="shared" ref="K3:K54" si="1">"stg_"&amp;G6</f>
+        <f t="shared" ref="K6:K54" si="3">"stg_"&amp;G6</f>
         <v>stg_</v>
       </c>
       <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1588,15 +1808,16 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1605,15 +1826,16 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1622,15 +1844,16 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1639,15 +1862,16 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1656,15 +1880,16 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1673,15 +1898,16 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1690,15 +1916,16 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1707,15 +1934,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1724,15 +1952,16 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1741,15 +1970,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1758,15 +1988,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1775,15 +2006,16 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1792,15 +2024,16 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1809,15 +2042,16 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1826,15 +2060,16 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1843,15 +2078,16 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -1860,15 +2096,16 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1877,15 +2114,16 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1894,15 +2132,16 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1911,15 +2150,16 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1928,15 +2168,16 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1945,15 +2186,16 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -1962,15 +2204,16 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1979,15 +2222,16 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1996,15 +2240,16 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2013,15 +2258,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2030,15 +2276,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2047,15 +2294,16 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2064,15 +2312,16 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2081,15 +2330,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2098,15 +2348,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2115,15 +2366,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2132,15 +2384,16 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2149,15 +2402,16 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2166,15 +2420,16 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -2183,15 +2438,16 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -2200,15 +2456,16 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -2217,15 +2474,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -2234,15 +2492,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
       <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -2251,15 +2510,16 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2268,15 +2528,16 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -2285,15 +2546,16 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -2302,15 +2564,16 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -2319,15 +2582,16 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2336,15 +2600,16 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -2353,15 +2618,16 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -2370,15 +2636,16 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -2386,15 +2653,16 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -2413,7 +2681,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L54 G2:H54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54 L2:L54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J54" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
@@ -2446,10 +2714,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40802AC-BF16-4F74-A64C-0EB8273AF630}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:O168"/>
+  <dimension ref="B2:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I14"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,18 +2734,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2485,31 +2753,31 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -2517,152 +2785,152 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2670,254 +2938,254 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -2938,491 +3206,491 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="M46" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="M47" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="M48" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="K49" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="L49" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="M49" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J50" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="K50" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="L50" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="L51" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="M51" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="L52" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="M52" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="L53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="M53" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="K54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="L54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="M54" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="I55" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="K55" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="L56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="M56" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="K57" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="L57" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="M57" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="F58" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="L58" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="M58" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3434,2628 +3702,2706 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G68" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="H68" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="I68" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="I78" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="H79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="H80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="G81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="H81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="I81" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="H82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="I82" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="H83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="I83" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="H84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="I85" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="I86" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="F87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="I87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="G88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="H88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="I88" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="F89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="G89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="I89" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="H90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="I90" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="F91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="H91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="I91" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="G92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="H92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="F93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="G93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="H93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="I93" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="H94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="I94" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="H95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="I95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="H96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="I96" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="H97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="I97" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="F98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="H98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="I98" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="F99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="H99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="I99" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="F100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="G100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="H100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="I100" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="F101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="G101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="H101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="I101" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="E102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="F102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="H102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="I102" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="E103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="F103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="H103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="I103" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="F104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="G104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="H104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="I104" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="G105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="H105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="I105" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="G106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="H106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="I106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="F107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="G107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="H107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="I107" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="F108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="G108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="H108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="D109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="F109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="G109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="H109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="F110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="G110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="I110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="D111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="F111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="G111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="H111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="I111" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="G112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="H112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="I112" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="G113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="H113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="I113" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="F114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="G114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="H114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="I114" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="I115" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="F116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="G116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="H116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="I116" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="F117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="G117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="H117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="E118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="F118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="H118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="I118" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="F119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="G119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="H119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="I119" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="D120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="G120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="H120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="I120" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="F121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="G121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="H121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="I121" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="G122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="H122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="I122" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="D123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="E123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="F123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="G123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="H123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="I123" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="F124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="G124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="H124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="E125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="F125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="G125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="H125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="I125" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="F126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="G126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="H126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="I126" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="D127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="G127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="H127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="I127" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="F128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="G128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="H128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="I128" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="E129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="G129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="I129" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="F130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="G130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="H130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="I130" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="G131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="H131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="I131" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="F132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="H132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="I132" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="D133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="E133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="G133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="H133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="I133" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="F134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="G134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="H134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="I134" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="E135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="G135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="H135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="I135" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="C136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="D136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="G136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="H136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="I136" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="E137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="G137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="H137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="I137" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="D138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="F138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="H138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="I138" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="D139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="G139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="H139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="I139" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="F140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="G140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="H140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="I140" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="E141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="G141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="H141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="I141" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="D142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="F142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="G142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="H142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="I142" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="H143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="I143" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="F144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="H144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="I144" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="E145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="H145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="I145" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="D146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="F146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="H146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="I146" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="D147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="E147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="H147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="I147" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="F148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="H148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="I148" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="D149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="E149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="H149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="I149" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="F150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="H150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="I150" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="E151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="F151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="H151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="I151" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="D152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="F152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="H152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="I152" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="D153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="E153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="H153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="I153" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="D154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="F154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="H154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="I154" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="C155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="D155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="E155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="H155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="I155" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="D156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="F156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="H156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="I156" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="D157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="E157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="H157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="I157" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="D158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="E158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="F158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="H158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="I158" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="D159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="E159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="F159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="H159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="I159" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="D160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="E160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="F160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="H160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="I160" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="D161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="E161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="F161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="H161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="I161" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="F162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="H162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="I162" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="E163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="F163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="H163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="I163" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="E164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="F164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="H164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="I164" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="E165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="F165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="H165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="I165" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="C166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="D166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="F166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="H166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="I166" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="E167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="F167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="H167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="I167" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="C168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="D168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="E168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="F168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="H168" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="I168" t="s">
-        <v>295</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>209</v>
+      </c>
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" t="s">
+        <v>209</v>
+      </c>
+      <c r="E169" t="s">
+        <v>209</v>
+      </c>
+      <c r="F169" t="s">
+        <v>209</v>
+      </c>
+      <c r="G169" t="s">
+        <v>209</v>
+      </c>
+      <c r="H169" t="s">
+        <v>209</v>
+      </c>
+      <c r="I169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>210</v>
+      </c>
+      <c r="C170" t="s">
+        <v>210</v>
+      </c>
+      <c r="D170" t="s">
+        <v>210</v>
+      </c>
+      <c r="E170" t="s">
+        <v>210</v>
+      </c>
+      <c r="F170" t="s">
+        <v>210</v>
+      </c>
+      <c r="G170" t="s">
+        <v>210</v>
+      </c>
+      <c r="H170" t="s">
+        <v>210</v>
+      </c>
+      <c r="I170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>211</v>
+      </c>
+      <c r="C171" t="s">
+        <v>211</v>
+      </c>
+      <c r="D171" t="s">
+        <v>211</v>
+      </c>
+      <c r="E171" t="s">
+        <v>211</v>
+      </c>
+      <c r="F171" t="s">
+        <v>211</v>
+      </c>
+      <c r="G171" t="s">
+        <v>211</v>
+      </c>
+      <c r="H171" t="s">
+        <v>211</v>
+      </c>
+      <c r="I171" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00408364-A7D8-4BC5-9FDF-6EF1FFA747A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8C7A0-2F4A-479F-9B47-AFB3ACD7C87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,8 +2716,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8C7A0-2F4A-479F-9B47-AFB3ACD7C87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACF545-BCD9-410A-921E-2C8210456890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="327">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1054,6 +1054,12 @@
   </si>
   <si>
     <t>VM DE TEST - LNX - mk417</t>
+  </si>
+  <si>
+    <t>FOLDER (ONLY FOR ESX)</t>
+  </si>
+  <si>
+    <t>/DMZ/DEV</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,15 +1464,16 @@
     <col min="10" max="10" width="49.140625" customWidth="1"/>
     <col min="11" max="11" width="21.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,31 +1511,34 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1567,32 +1577,32 @@
       <c r="L2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>2048</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>100</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1631,32 +1641,35 @@
       <c r="L3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" s="2">
         <v>16384</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>4</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>100</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>24</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1695,32 +1708,35 @@
       <c r="L4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" s="2">
         <v>16384</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>100</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>24</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1759,32 +1775,35 @@
       <c r="L5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" s="2">
         <v>16384</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>100</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>24</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1800,9 +1819,10 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1818,9 +1838,10 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1836,9 +1857,10 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1854,9 +1876,10 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1872,9 +1895,10 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1890,9 +1914,10 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1908,9 +1933,10 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1926,9 +1952,10 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1944,9 +1971,10 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1962,9 +1990,10 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1980,9 +2009,10 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1998,9 +2028,10 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2016,9 +2047,10 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2034,9 +2066,10 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2052,9 +2085,10 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2070,9 +2104,10 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2088,9 +2123,10 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2106,9 +2142,10 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2124,9 +2161,10 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2142,9 +2180,10 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2160,9 +2199,10 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2178,9 +2218,10 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2196,9 +2237,10 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2214,9 +2256,10 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2232,9 +2275,10 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2250,9 +2294,10 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2268,9 +2313,10 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2286,9 +2332,10 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2304,9 +2351,10 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2322,9 +2370,10 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2340,9 +2389,10 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2358,9 +2408,10 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2376,9 +2427,10 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N38" s="2"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2394,9 +2446,10 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2412,9 +2465,10 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N40" s="2"/>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2430,9 +2484,10 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2448,9 +2503,10 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2466,9 +2522,10 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2484,9 +2541,10 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N44" s="2"/>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2502,9 +2560,10 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2520,9 +2579,10 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N46" s="2"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2538,9 +2598,10 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N47" s="2"/>
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2556,9 +2617,10 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N48" s="2"/>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2574,9 +2636,10 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N49" s="2"/>
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2592,9 +2655,10 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N50" s="2"/>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2610,9 +2674,10 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N51" s="2"/>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2628,9 +2693,10 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N52" s="2"/>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2646,9 +2712,10 @@
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N53" s="2"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2663,11 +2730,13 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N54" s="2"/>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2675,13 +2744,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H55" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
       <formula1>INDIRECT(G55)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L55" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L55:M55" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54 L2:L54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54 L2:L54 M36:M54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J54" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
@@ -2703,7 +2772,7 @@
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T54</xm:sqref>
+          <xm:sqref>U2:U54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACF545-BCD9-410A-921E-2C8210456890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01015B4F-2D4A-4DC4-95B9-33A663F53FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -660,406 +660,364 @@
     <t>sub_nut-dmz-08</t>
   </si>
   <si>
+    <t>TST_SAP</t>
+  </si>
+  <si>
+    <t>REC_SAP</t>
+  </si>
+  <si>
+    <t>PRO_SAP</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["ESX_Management"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_2_200.2"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_3_200.3"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_4_200.4"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["historique_9_200.9"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["HMC_37"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["native"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["New_PROD"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["Production"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VDI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-128-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN-20-Legacy-Server"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_26"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_27"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_40"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VLAN_42"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_network["VOIP"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["TEST_ESXI"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["Nutanix_fs01_ctr"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC1_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_storage["test"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_480_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_481_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NutanixManagementShare"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["SelfServiceContainer"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_LU480_DC01_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["Nutanix_fs01_ctr"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_VMISO"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_VIE"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC3_CTX"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_LU481_DC03_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_01"]</t>
+  </si>
+  <si>
+    <t>var.ahv_651_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
+  </si>
+  <si>
+    <t>FOLDER (ONLY FOR ESX)</t>
+  </si>
+  <si>
+    <t>LU718</t>
+  </si>
+  <si>
+    <t>VM TEST - LNX - MK417</t>
+  </si>
+  <si>
+    <t>lu718</t>
+  </si>
+  <si>
+    <t>MEM(MB)</t>
+  </si>
+  <si>
+    <t>200.1.1.105</t>
+  </si>
+  <si>
     <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
-    <t>200.1.1.1055</t>
-  </si>
-  <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>172.26.16.254</t>
-  </si>
-  <si>
-    <t>172.25.16.254</t>
-  </si>
-  <si>
-    <t>172.23.16.254</t>
-  </si>
-  <si>
-    <t>172.23.16.1</t>
-  </si>
-  <si>
-    <t>172.25.16.1</t>
-  </si>
-  <si>
-    <t>172.26.16.1</t>
-  </si>
-  <si>
-    <t>APP Server SAP - TST</t>
-  </si>
-  <si>
-    <t>APP Server SAP - QAL</t>
-  </si>
-  <si>
-    <t>APP Server SAP - PRO</t>
-  </si>
-  <si>
-    <t>VSL-TST-SAP-001</t>
-  </si>
-  <si>
-    <t>VSL-REC-SAP-001</t>
-  </si>
-  <si>
-    <t>rhel8-dc2</t>
-  </si>
-  <si>
-    <t>TST_SAP</t>
-  </si>
-  <si>
-    <t>REC_SAP</t>
-  </si>
-  <si>
-    <t>PRO_SAP</t>
-  </si>
-  <si>
-    <t>VSL-PRO-SAP-001</t>
-  </si>
-  <si>
-    <t>MEM(GB)</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_network["VOIP"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_network["VOIP"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_network["VOIP"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["ESX_Management"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_2_200.2"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_3_200.3"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_4_200.4"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["historique_9_200.9"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["HMC_37"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["native"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["New_PROD"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["Production"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VDI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN-128-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN-20-Legacy-Server"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_26"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_27"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_40"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VLAN_42"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_network["VOIP"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["TEST_ESXI"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["Nutanix_fs01_ctr"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC1_CTX"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC1_VIE"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC3_VIE"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC3_CTX"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC3_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
-    <t>var.ahv_650_storage["test"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_480_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_481_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NutanixManagementShare"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["SelfServiceContainer"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_LU480_DC01_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["Nutanix_fs01_ctr"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC3_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_VMISO"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC3_RH_PGSQL"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC3_VIE"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC1_VIE"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC1_CTX"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC3_CTX"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_LU481_DC03_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC1_01"]</t>
-  </si>
-  <si>
-    <t>var.ahv_651_storage["NUT_AHV_DC1_RH_PGSQL"]</t>
-  </si>
-  <si>
-    <t>VM DE TEST - LNX - mk417</t>
-  </si>
-  <si>
-    <t>FOLDER (ONLY FOR ESX)</t>
-  </si>
-  <si>
-    <t>/DMZ/DEV</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1405,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,11 +1418,12 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="49.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
@@ -1511,10 +1470,10 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1543,16 +1502,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1568,20 +1527,20 @@
         <v>sub_cluster650</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K2" s="3" t="str">
         <f>"stg_"&amp;G2</f>
         <v>stg_cluster650</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="N2" s="2">
         <v>2048</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -1590,217 +1549,52 @@
         <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I5" si="0">"sub_"&amp;G3</f>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>209</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K5" si="1">"stg_"&amp;G3</f>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="N3" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>100</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S3" s="2">
-        <v>24</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
+        <v>stg_</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>210</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="N4" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O4" s="2">
-        <v>4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>100</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S4" s="2">
-        <v>24</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>23</v>
+        <v>stg_</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-01</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>211</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-01</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="N5" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O5" s="2">
-        <v>4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>100</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S5" s="2">
-        <v>24</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>51</v>
+        <v>stg_</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1809,7 +1603,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I54" si="2">"sub_"&amp;G6</f>
+        <f t="shared" ref="I6:I37" si="2">"sub_"&amp;G6</f>
         <v>sub_</v>
       </c>
       <c r="J6" s="3"/>
@@ -2417,7 +2211,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I38:I54" si="4">"sub_"&amp;G38</f>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
@@ -2436,7 +2230,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="3"/>
@@ -2455,7 +2249,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="3"/>
@@ -2474,7 +2268,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J41" s="3"/>
@@ -2493,7 +2287,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J42" s="3"/>
@@ -2512,7 +2306,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J43" s="3"/>
@@ -2531,7 +2325,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J44" s="3"/>
@@ -2550,7 +2344,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J45" s="3"/>
@@ -2569,7 +2363,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J46" s="3"/>
@@ -2588,7 +2382,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J47" s="3"/>
@@ -2607,7 +2401,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J48" s="3"/>
@@ -2626,7 +2420,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J49" s="3"/>
@@ -2645,7 +2439,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J50" s="3"/>
@@ -2664,7 +2458,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J51" s="3"/>
@@ -2683,7 +2477,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J52" s="3"/>
@@ -2702,7 +2496,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J53" s="3"/>
@@ -2720,7 +2514,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J54" s="3"/>
@@ -3021,240 +2815,240 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E39" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3313,16 +3107,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F47" t="s">
         <v>57</v>
@@ -3351,16 +3145,16 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -3389,16 +3183,16 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F49" t="s">
         <v>59</v>
@@ -3427,16 +3221,16 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E50" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F50" t="s">
         <v>60</v>
@@ -3465,16 +3259,16 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F51" t="s">
         <v>61</v>
@@ -3503,16 +3297,16 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F52" t="s">
         <v>62</v>
@@ -3541,10 +3335,10 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
         <v>63</v>
@@ -3573,10 +3367,10 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -3605,10 +3399,10 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F55" t="s">
         <v>65</v>
@@ -3637,10 +3431,10 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3669,10 +3463,10 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F57" t="s">
         <v>68</v>
@@ -3701,10 +3495,10 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
         <v>69</v>
@@ -3733,28 +3527,28 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -6397,80 +6191,80 @@
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01015B4F-2D4A-4DC4-95B9-33A663F53FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19795F68-F6EB-4237-A4E8-D4EBC45AF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="314">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1002,22 +1002,25 @@
     <t>FOLDER (ONLY FOR ESX)</t>
   </si>
   <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>VM TEST - LNX - MK417</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>200.1.1.105</t>
-  </si>
-  <si>
-    <t>200.1.1.240</t>
+    <t>VSL-PRO-SAT-01</t>
+  </si>
+  <si>
+    <t>NEW SATELLITE SERVER 6.12</t>
+  </si>
+  <si>
+    <t>vsl-pro-sat-01</t>
+  </si>
+  <si>
+    <t>/DMZ/MGMT</t>
+  </si>
+  <si>
+    <t>172.22.56.11</t>
+  </si>
+  <si>
+    <t>172.22.56.1</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1408,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1476,7 @@
         <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1499,63 +1502,67 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"sub_"&amp;G2</f>
-        <v>sub_cluster650</v>
+        <v>sub_nut-dmz-01</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="K2" s="3" t="str">
         <f>"stg_"&amp;G2</f>
-        <v>stg_cluster650</v>
+        <v>stg_nut-dmz-01</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>270</v>
+        <v>63</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="N2" s="2">
-        <v>2048</v>
+        <f>48*1024</f>
+        <v>49152</v>
       </c>
       <c r="O2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19795F68-F6EB-4237-A4E8-D4EBC45AF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC221C-C114-4994-A1C5-6A77D1967190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="319">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1002,9 +1002,21 @@
     <t>FOLDER (ONLY FOR ESX)</t>
   </si>
   <si>
+    <t>LU718</t>
+  </si>
+  <si>
+    <t>lu718</t>
+  </si>
+  <si>
     <t>MEM(MB)</t>
   </si>
   <si>
+    <t>200.1.1.105</t>
+  </si>
+  <si>
+    <t>200.1.1.240</t>
+  </si>
+  <si>
     <t>VSL-PRO-SAT-01</t>
   </si>
   <si>
@@ -1021,6 +1033,9 @@
   </si>
   <si>
     <t>172.22.56.1</t>
+  </si>
+  <si>
+    <t>VM DE TEST - LNX</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1424,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1491,7 @@
         <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1505,16 +1520,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1540,7 +1555,7 @@
         <v>63</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N2" s="2">
         <f>48*1024</f>
@@ -1556,28 +1571,80 @@
         <v>500</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I5" si="0">"sub_"&amp;G3</f>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K5" si="1">"stg_"&amp;G3</f>
-        <v>stg_</v>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2048</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>100</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="S3" s="2">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC221C-C114-4994-A1C5-6A77D1967190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8A40D-EC64-4219-9FE7-3B7C61B98648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1015,24 +1015,6 @@
   </si>
   <si>
     <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>VSL-PRO-SAT-01</t>
-  </si>
-  <si>
-    <t>NEW SATELLITE SERVER 6.12</t>
-  </si>
-  <si>
-    <t>vsl-pro-sat-01</t>
-  </si>
-  <si>
-    <t>/DMZ/MGMT</t>
-  </si>
-  <si>
-    <t>172.22.56.11</t>
-  </si>
-  <si>
-    <t>172.22.56.1</t>
   </si>
   <si>
     <t>VM DE TEST - LNX</t>
@@ -1421,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,134 +1499,78 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-01</v>
+        <f t="shared" ref="I2:I4" si="0">"sub_"&amp;G2</f>
+        <v>sub_cluster650</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f>"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-01</v>
+        <f t="shared" ref="K2:K4" si="1">"stg_"&amp;G2</f>
+        <v>stg_cluster650</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="N2" s="2">
-        <f>48*1024</f>
-        <v>49152</v>
+        <v>2048</v>
       </c>
       <c r="O2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I5" si="0">"sub_"&amp;G3</f>
-        <v>sub_cluster650</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>198</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3" t="str">
-        <f t="shared" ref="K3:K5" si="1">"stg_"&amp;G3</f>
-        <v>stg_cluster650</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2048</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>100</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="S3" s="2">
-        <v>24</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>stg_</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1659,17 +1585,24 @@
         <v>stg_</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:I36" si="2">"sub_"&amp;G5</f>
         <v>sub_</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K5:K53" si="3">"stg_"&amp;G5</f>
         <v>stg_</v>
       </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1677,12 +1610,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I37" si="2">"sub_"&amp;G6</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="str">
-        <f t="shared" ref="K6:K54" si="3">"stg_"&amp;G6</f>
+        <f t="shared" si="3"/>
         <v>stg_</v>
       </c>
       <c r="L6" s="2"/>
@@ -2266,7 +2199,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I37:I53" si="4">"sub_"&amp;G37</f>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
@@ -2285,7 +2218,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" ref="I38:I54" si="4">"sub_"&amp;G38</f>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
@@ -2565,7 +2498,6 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2584,44 +2516,26 @@
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_</v>
-      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H55" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G55)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H54" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G54)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L55:M55" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L54:M54" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M35:M53 L2:L53 G2:H53" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+      <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H54 L2:L54 M36:M54" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
-      <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J54" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J53" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2634,13 +2548,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A53</xm:sqref>
+          <xm:sqref>A2:A52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U54</xm:sqref>
+          <xm:sqref>U2:U53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8A40D-EC64-4219-9FE7-3B7C61B98648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642C4A3-FED2-4CDF-B1BC-BE719A6033FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="318">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1002,22 +1002,37 @@
     <t>FOLDER (ONLY FOR ESX)</t>
   </si>
   <si>
-    <t>LU718</t>
-  </si>
-  <si>
-    <t>lu718</t>
-  </si>
-  <si>
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>200.1.1.105</t>
-  </si>
-  <si>
     <t>200.1.1.240</t>
   </si>
   <si>
     <t>VM DE TEST - LNX</t>
+  </si>
+  <si>
+    <t>VSL-TST-SAP-001</t>
+  </si>
+  <si>
+    <t>APP Server SAP - TST</t>
+  </si>
+  <si>
+    <t>172.26.16.1</t>
+  </si>
+  <si>
+    <t>172.26.16.254</t>
+  </si>
+  <si>
+    <t>/DMZ/DEV</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1420,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1433,7 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="49.140625" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
@@ -1473,7 +1488,7 @@
         <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1502,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1549,28 +1564,83 @@
         <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>sub_nut-dmz-02</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
+        <v>stg_nut-dmz-02</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N3" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>100</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="S3" s="2">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2529,7 +2599,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L54:M54" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M35:M53 L2:L53 G2:H53" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M35:M53 G2:H53 L2:L53" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
@@ -2548,13 +2618,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A52</xm:sqref>
+          <xm:sqref>A2 A4:A52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U53</xm:sqref>
+          <xm:sqref>U2 U4:U53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642C4A3-FED2-4CDF-B1BC-BE719A6033FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F0F6D-E1EA-46DD-A098-83CCB4E4A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="321">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1005,12 +1005,6 @@
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>200.1.1.240</t>
-  </si>
-  <si>
-    <t>VM DE TEST - LNX</t>
-  </si>
-  <si>
     <t>VSL-TST-SAP-001</t>
   </si>
   <si>
@@ -1026,13 +1020,28 @@
     <t>/DMZ/DEV</t>
   </si>
   <si>
-    <t>LU717</t>
-  </si>
-  <si>
-    <t>lu717</t>
-  </si>
-  <si>
-    <t>200.1.1.106</t>
+    <t>VSL-REC-SAP-001</t>
+  </si>
+  <si>
+    <t>APP Server SAP - QAL</t>
+  </si>
+  <si>
+    <t>172.25.16.1</t>
+  </si>
+  <si>
+    <t>172.25.16.254</t>
+  </si>
+  <si>
+    <t>VSL-PRO-SAP-001</t>
+  </si>
+  <si>
+    <t>APP Server SAP - PRO</t>
+  </si>
+  <si>
+    <t>172.23.16.1</t>
+  </si>
+  <si>
+    <t>172.23.16.254</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,48 +1523,51 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I4" si="0">"sub_"&amp;G2</f>
-        <v>sub_cluster650</v>
+        <v>sub_nut-dmz-02</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K2" s="3" t="str">
         <f t="shared" ref="K2:K4" si="1">"stg_"&amp;G2</f>
-        <v>stg_cluster650</v>
+        <v>stg_nut-dmz-02</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>270</v>
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="N2" s="2">
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="O2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -1564,13 +1576,13 @@
         <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
@@ -1581,16 +1593,16 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>37</v>
@@ -1606,7 +1618,7 @@
         <v>sub_nut-dmz-02</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1616,7 +1628,7 @@
         <v>64</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N3" s="2">
         <v>16384</v>
@@ -1631,28 +1643,83 @@
         <v>100</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S3" s="2">
         <v>24</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>sub_nut-dmz-01</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
+        <v>stg_nut-dmz-01</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S4" s="2">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1661,12 +1728,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I5:I36" si="2">"sub_"&amp;G5</f>
+        <f t="shared" ref="I4:I35" si="2">"sub_"&amp;G5</f>
         <v>sub_</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="str">
-        <f t="shared" ref="K5:K53" si="3">"stg_"&amp;G5</f>
+        <f t="shared" ref="K4:K52" si="3">"stg_"&amp;G5</f>
         <v>stg_</v>
       </c>
       <c r="L5" s="2"/>
@@ -2250,7 +2317,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I36:I52" si="4">"sub_"&amp;G36</f>
         <v>sub_</v>
       </c>
       <c r="J36" s="3"/>
@@ -2269,7 +2336,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" ref="I37:I53" si="4">"sub_"&amp;G37</f>
+        <f t="shared" si="4"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
@@ -2549,7 +2616,6 @@
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2568,44 +2634,26 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_</v>
-      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H54" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G54)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G53)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L54:M54" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L53:M53" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M35:M53 G2:H53 L2:L53" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:M52 G2:H52 L2:L52" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J53" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J52" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2618,13 +2666,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A4:A52</xm:sqref>
+          <xm:sqref>A5:A51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2 U4:U53</xm:sqref>
+          <xm:sqref>U5:U52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F0F6D-E1EA-46DD-A098-83CCB4E4A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBA989-46B4-4ADF-9372-1B9C079BD2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1002,46 +1002,22 @@
     <t>FOLDER (ONLY FOR ESX)</t>
   </si>
   <si>
+    <t>LU718</t>
+  </si>
+  <si>
+    <t>lu718</t>
+  </si>
+  <si>
     <t>MEM(MB)</t>
   </si>
   <si>
-    <t>VSL-TST-SAP-001</t>
-  </si>
-  <si>
-    <t>APP Server SAP - TST</t>
-  </si>
-  <si>
-    <t>172.26.16.1</t>
-  </si>
-  <si>
-    <t>172.26.16.254</t>
-  </si>
-  <si>
-    <t>/DMZ/DEV</t>
-  </si>
-  <si>
-    <t>VSL-REC-SAP-001</t>
-  </si>
-  <si>
-    <t>APP Server SAP - QAL</t>
-  </si>
-  <si>
-    <t>172.25.16.1</t>
-  </si>
-  <si>
-    <t>172.25.16.254</t>
-  </si>
-  <si>
-    <t>VSL-PRO-SAP-001</t>
-  </si>
-  <si>
-    <t>APP Server SAP - PRO</t>
-  </si>
-  <si>
-    <t>172.23.16.1</t>
-  </si>
-  <si>
-    <t>172.23.16.254</t>
+    <t>200.1.1.105</t>
+  </si>
+  <si>
+    <t>200.1.1.240</t>
+  </si>
+  <si>
+    <t>VM TEST LNX</t>
   </si>
 </sst>
 </file>
@@ -1427,14 +1403,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -1497,7 +1474,7 @@
         <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1521,53 +1498,51 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I4" si="0">"sub_"&amp;G2</f>
-        <v>sub_nut-dmz-02</v>
+        <f t="shared" ref="I2:I32" si="0">"sub_"&amp;G2</f>
+        <v>sub_cluster651</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K4" si="1">"stg_"&amp;G2</f>
-        <v>stg_nut-dmz-02</v>
+        <f t="shared" ref="K2:K49" si="1">"stg_"&amp;G2</f>
+        <v>stg_cluster651</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>16384</v>
+        <v>2048</v>
       </c>
       <c r="O2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -1588,139 +1563,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-02</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-02</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N3" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>100</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="S3" s="2">
-        <v>24</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_nut-dmz-01</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>195</v>
-      </c>
+        <v>sub_</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nut-dmz-01</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" s="2">
-        <v>16384</v>
-      </c>
-      <c r="O4" s="2">
-        <v>4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>100</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S4" s="2">
-        <v>24</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>stg_</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1728,12 +1607,12 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I4:I35" si="2">"sub_"&amp;G5</f>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="str">
-        <f t="shared" ref="K4:K52" si="3">"stg_"&amp;G5</f>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L5" s="2"/>
@@ -1747,12 +1626,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L6" s="2"/>
@@ -1766,12 +1645,12 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L7" s="2"/>
@@ -1785,12 +1664,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L8" s="2"/>
@@ -1804,12 +1683,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L9" s="2"/>
@@ -1823,12 +1702,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L10" s="2"/>
@@ -1842,12 +1721,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L11" s="2"/>
@@ -1861,12 +1740,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L12" s="2"/>
@@ -1880,12 +1759,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L13" s="2"/>
@@ -1899,12 +1778,12 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L14" s="2"/>
@@ -1918,12 +1797,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L15" s="2"/>
@@ -1937,12 +1816,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L16" s="2"/>
@@ -1956,12 +1835,12 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L17" s="2"/>
@@ -1975,12 +1854,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L18" s="2"/>
@@ -1994,12 +1873,12 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L19" s="2"/>
@@ -2013,12 +1892,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L20" s="2"/>
@@ -2032,12 +1911,12 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L21" s="2"/>
@@ -2051,12 +1930,12 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L22" s="2"/>
@@ -2070,12 +1949,12 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L23" s="2"/>
@@ -2089,12 +1968,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L24" s="2"/>
@@ -2108,12 +1987,12 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L25" s="2"/>
@@ -2127,12 +2006,12 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L26" s="2"/>
@@ -2146,12 +2025,12 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L27" s="2"/>
@@ -2165,12 +2044,12 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L28" s="2"/>
@@ -2184,12 +2063,12 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L29" s="2"/>
@@ -2203,12 +2082,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L30" s="2"/>
@@ -2222,12 +2101,12 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L31" s="2"/>
@@ -2241,12 +2120,12 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L32" s="2"/>
@@ -2260,12 +2139,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I33:I49" si="2">"sub_"&amp;G33</f>
         <v>sub_</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L33" s="2"/>
@@ -2284,7 +2163,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L34" s="2"/>
@@ -2303,7 +2182,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L35" s="2"/>
@@ -2317,12 +2196,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="str">
-        <f t="shared" ref="I36:I52" si="4">"sub_"&amp;G36</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L36" s="2"/>
@@ -2336,12 +2215,12 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L37" s="2"/>
@@ -2355,12 +2234,12 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L38" s="2"/>
@@ -2374,12 +2253,12 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L39" s="2"/>
@@ -2393,12 +2272,12 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L40" s="2"/>
@@ -2412,12 +2291,12 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L41" s="2"/>
@@ -2431,12 +2310,12 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L42" s="2"/>
@@ -2450,12 +2329,12 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L43" s="2"/>
@@ -2469,12 +2348,12 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L44" s="2"/>
@@ -2488,12 +2367,12 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L45" s="2"/>
@@ -2507,12 +2386,12 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L46" s="2"/>
@@ -2526,12 +2405,12 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L47" s="2"/>
@@ -2545,12 +2424,12 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L48" s="2"/>
@@ -2558,18 +2437,17 @@
       <c r="N48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+    <row r="49" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>stg_</v>
       </c>
       <c r="L49" s="2"/>
@@ -2577,83 +2455,27 @@
       <c r="N49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+    <row r="50" spans="6:21" x14ac:dyDescent="0.25">
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_</v>
-      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>sub_</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>stg_</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G53)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G50)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L53:M53" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L50:M50" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:M52 G2:H52 L2:L52" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M31:M49 L2:L49 G2:H49" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F52" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J52" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J49" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2666,13 +2488,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A51</xm:sqref>
+          <xm:sqref>A2:A48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U5:U52</xm:sqref>
+          <xm:sqref>U2:U49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBA989-46B4-4ADF-9372-1B9C079BD2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B85015-7173-4EBA-9CAB-464EAAFE664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15285" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="318">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1018,6 +1018,21 @@
   </si>
   <si>
     <t>VM TEST LNX</t>
+  </si>
+  <si>
+    <t>VSL-POC-AIA-001</t>
+  </si>
+  <si>
+    <t>AIA POC LNX</t>
+  </si>
+  <si>
+    <t>vsl-poc-aia-001</t>
+  </si>
+  <si>
+    <t>192.168.25.106</t>
+  </si>
+  <si>
+    <t>192.168.25.1</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1421,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,23 +1579,69 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>sub_cluster651</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>stg_cluster651</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="N3" s="2">
+        <v>16384</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>316</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>317</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B85015-7173-4EBA-9CAB-464EAAFE664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B3AD7-C9A1-45A2-A7C6-1922530E1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="vms" sheetId="1" r:id="rId1"/>
@@ -1418,10 +1418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAEDD9-6941-4909-B148-BE39F1BC44CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,14 +1539,14 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I32" si="0">"sub_"&amp;G2</f>
+        <f t="shared" ref="I2:I31" si="0">"sub_"&amp;G2</f>
         <v>sub_cluster651</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>215</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:K49" si="1">"stg_"&amp;G2</f>
+        <f t="shared" ref="K2:K48" si="1">"stg_"&amp;G2</f>
         <v>stg_cluster651</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2181,7 +2181,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I32:I48" si="2">"sub_"&amp;G32</f>
         <v>sub_</v>
       </c>
       <c r="J32" s="3"/>
@@ -2200,7 +2200,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="str">
-        <f t="shared" ref="I33:I49" si="2">"sub_"&amp;G33</f>
+        <f t="shared" si="2"/>
         <v>sub_</v>
       </c>
       <c r="J33" s="3"/>
@@ -2480,7 +2480,6 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2498,45 +2497,27 @@
       <c r="N48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>sub_</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
-      <formula1>INDIRECT(G50)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49" xr:uid="{4FC890E6-2DB1-4941-8EA7-F50728DEEB5D}">
+      <formula1>INDIRECT(G49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L50:M50" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49:M49" xr:uid="{2D64116A-73B2-41C7-A2E1-A7FD48DA87D6}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M31:M49 L2:L49 G2:H49" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M30:M48 G2:H48 L2:L48" xr:uid="{B9C7A583-D0BF-41C2-B68D-063D33DBD67E}">
       <formula1>INDIRECT(SUBSTITUTE(F2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F48" xr:uid="{CA05F912-8685-415C-B77F-A3ADBAED34E5}">
       <formula1>INDIRECT(A2)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J49" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J48" xr:uid="{E5C65068-C598-4D35-AC9D-0083FECA8139}">
       <formula1>INDIRECT(SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2549,13 +2530,13 @@
           <x14:formula1>
             <xm:f>params!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A48</xm:sqref>
+          <xm:sqref>A2:A47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0B35C17-C684-46B2-AA38-9FA5534C30BF}">
           <x14:formula1>
             <xm:f>params!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U49</xm:sqref>
+          <xm:sqref>U2:U48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B3AD7-C9A1-45A2-A7C6-1922530E1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669C7EAA-F771-4C6B-84C5-38610F726B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1420,8 +1420,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1640,7 @@
         <v>317</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669C7EAA-F771-4C6B-84C5-38610F726B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8543D6A-9555-40C9-AC25-59FDA2D8E62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="321">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>lu717</t>
+  </si>
+  <si>
+    <t>LU717</t>
+  </si>
+  <si>
+    <t>200.1.1.106</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1430,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,23 +1653,69 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>sub_cluster650</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>stg_cluster650</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="N4" s="2">
+        <v>2048</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>320</v>
+      </c>
+      <c r="S4">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>311</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8543D6A-9555-40C9-AC25-59FDA2D8E62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CB5E7-FA3F-40CC-A9F9-AE82E29EC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="322">
   <si>
     <t>DOMAIN</t>
   </si>
@@ -1042,6 +1042,9 @@
   </si>
   <si>
     <t>200.1.1.106</t>
+  </si>
+  <si>
+    <t>VM TEST LNX kwk</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1432,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1666,7 @@
         <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>318</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CB5E7-FA3F-40CC-A9F9-AE82E29EC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C70E6-FA15-420C-9A45-E9719B05C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
     <t>200.1.1.106</t>
   </si>
   <si>
-    <t>VM TEST LNX kwk</t>
+    <t>VM TEST LNX kwak</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C70E6-FA15-420C-9A45-E9719B05C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0E033-C7AC-4D17-8DD3-B0C2765E3EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
     <t>200.1.1.106</t>
   </si>
   <si>
-    <t>VM TEST LNX kwak</t>
+    <t>VM TEST LNX -- mk417 --</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0E033-C7AC-4D17-8DD3-B0C2765E3EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECA544-7EDA-4F49-820E-E3B27C3F954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
     <t>200.1.1.106</t>
   </si>
   <si>
-    <t>VM TEST LNX -- mk417 --</t>
+    <t>VM TEST LINUX -- kwk --</t>
   </si>
 </sst>
 </file>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECA544-7EDA-4F49-820E-E3B27C3F954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5A1CA6-C829-41DE-AA17-CE079D838DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,27 +1672,27 @@
         <v>318</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sub_cluster650</v>
+        <v>sub_cluster651</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>stg_cluster650</v>
+        <v>stg_cluster651</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5A1CA6-C829-41DE-AA17-CE079D838DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413C8B-CC58-4121-9F40-D59847EC8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -681,9 +681,6 @@
     <t>var.ahv_650_network["HMC_37"]</t>
   </si>
   <si>
-    <t>var.ahv_650_network["New_PROD"]</t>
-  </si>
-  <si>
     <t>var.ahv_650_network["VDI"]</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>var.ahv_651_network["HMC_37"]</t>
   </si>
   <si>
-    <t>var.ahv_651_network["New_PROD"]</t>
-  </si>
-  <si>
     <t>var.ahv_651_network["VDI"]</t>
   </si>
   <si>
@@ -1045,6 +1039,12 @@
   </si>
   <si>
     <t>VM TEST LINUX -- kwk --</t>
+  </si>
+  <si>
+    <t>var.ahv_651_network["New_PROD 192.168.25.x"]</t>
+  </si>
+  <si>
+    <t>var.ahv_650_network["New_PROD 192.168.25.x"]</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,10 +1498,10 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -1530,16 +1530,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1555,14 +1555,14 @@
         <v>sub_cluster651</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K2" s="3" t="str">
         <f t="shared" ref="K2:K48" si="1">"stg_"&amp;G2</f>
         <v>stg_cluster651</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
@@ -1578,13 +1578,13 @@
         <v>100</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S2" s="2">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
@@ -1595,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
         <v>313</v>
-      </c>
-      <c r="C3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" t="s">
-        <v>315</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1620,14 +1620,14 @@
         <v>sub_cluster651</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>stg_cluster651</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2">
@@ -1643,13 +1643,13 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S3">
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>51</v>
@@ -1660,16 +1660,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
         <v>319</v>
       </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -1685,14 +1685,14 @@
         <v>sub_cluster651</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>stg_cluster651</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">
@@ -1708,13 +1708,13 @@
         <v>100</v>
       </c>
       <c r="R4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S4">
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>19</v>
@@ -2607,8 +2607,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,13 +2846,13 @@
         <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -2860,13 +2860,13 @@
         <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -2874,13 +2874,13 @@
         <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -2888,195 +2888,195 @@
         <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3135,16 +3135,16 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
         <v>57</v>
@@ -3173,16 +3173,16 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -3211,16 +3211,16 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F49" t="s">
         <v>59</v>
@@ -3249,16 +3249,16 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F50" t="s">
         <v>60</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F51" t="s">
         <v>61</v>
@@ -3325,16 +3325,16 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F52" t="s">
         <v>62</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F53" t="s">
         <v>63</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -3427,10 +3427,10 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F55" t="s">
         <v>65</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3491,10 +3491,10 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
         <v>68</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
         <v>69</v>
@@ -3555,28 +3555,28 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413C8B-CC58-4121-9F40-D59847EC8231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4F7BC-3915-4CE9-8898-7587EC6BD6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
     <t>200.1.1.106</t>
   </si>
   <si>
-    <t>VM TEST LINUX -- kwk --</t>
+    <t>VM TEST LINUX -- mk417 --</t>
   </si>
   <si>
     <t>var.ahv_651_network["New_PROD 192.168.25.x"]</t>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,8 +1447,8 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="49.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
     <col min="12" max="12" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.5703125" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4F7BC-3915-4CE9-8898-7587EC6BD6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD2C3A-195F-452E-B56D-3AE730FBD216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1038,13 +1038,13 @@
     <t>200.1.1.106</t>
   </si>
   <si>
-    <t>VM TEST LINUX -- mk417 --</t>
-  </si>
-  <si>
     <t>var.ahv_651_network["New_PROD 192.168.25.x"]</t>
   </si>
   <si>
     <t>var.ahv_650_network["New_PROD 192.168.25.x"]</t>
+  </si>
+  <si>
+    <t>VM TEST LINUX -- MK417 --</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1620,7 @@
         <v>sub_cluster651</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1666,7 +1666,7 @@
         <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>316</v>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E29" t="s">
         <v>249</v>

--- a/dev/vmdefs.xlsx
+++ b/dev/vmdefs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD2C3A-195F-452E-B56D-3AE730FBD216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF215DF-4B39-49F1-8045-EF8AFED7CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{34D50B9A-C40D-4772-AE96-867572325A1F}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
     <t>var.ahv_650_network["New_PROD 192.168.25.x"]</t>
   </si>
   <si>
-    <t>VM TEST LINUX -- MK417 --</t>
+    <t>VM TEST LINUX -- MK --</t>
   </si>
 </sst>
 </file>
